--- a/server/docs/노크_통신규약_최지수_v2.7.xlsx
+++ b/server/docs/노크_통신규약_최지수_v2.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="15960" windowHeight="13380" tabRatio="927" firstSheet="2" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="15960" windowHeight="13380" tabRatio="927" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="작성방법" sheetId="1" r:id="rId1"/>
@@ -1860,14 +1860,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>/today</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/refresh</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>담당</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2205,6 +2197,14 @@
   </si>
   <si>
     <t>/mbti/:u_id/other</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/today/:u_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/refresh/:u_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3271,6 +3271,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3332,9 +3335,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4793,21 +4793,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -4863,19 +4863,19 @@
       <c r="A8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="14" t="s">
@@ -4903,11 +4903,11 @@
       <c r="A12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4949,21 +4949,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -4987,11 +4987,11 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -5018,7 +5018,7 @@
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="62"/>
       <c r="B8" s="66" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="66" t="s">
@@ -5029,11 +5029,11 @@
       <c r="A9" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="129" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
+      <c r="B9" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="17" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -5076,21 +5076,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -5158,19 +5158,19 @@
       <c r="A9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="83"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="14" t="s">
@@ -5198,11 +5198,11 @@
       <c r="A13" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5244,21 +5244,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -5282,11 +5282,11 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -5354,11 +5354,11 @@
       <c r="A12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="20" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -5401,21 +5401,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -5464,26 +5464,26 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="129" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" s="138"/>
+      <c r="B8" s="138" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="139"/>
       <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="14" t="s">
@@ -5511,11 +5511,11 @@
       <c r="A12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5557,21 +5557,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -5629,19 +5629,19 @@
       <c r="A8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="79"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="14" t="s">
@@ -5669,11 +5669,11 @@
       <c r="A12" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5715,21 +5715,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -5753,11 +5753,11 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -5785,11 +5785,11 @@
       <c r="A8" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5830,21 +5830,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -5902,19 +5902,19 @@
       <c r="A8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="79"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="14" t="s">
@@ -5927,7 +5927,7 @@
       <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="84" t="s">
@@ -5939,7 +5939,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A12" s="139"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
@@ -5952,11 +5952,11 @@
       <c r="A13" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6000,28 +6000,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="B2" s="129" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="18"/>
@@ -6040,25 +6040,25 @@
       <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
     </row>
     <row r="6" spans="1:4" ht="20.45" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="106"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="134"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="135"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -6071,7 +6071,7 @@
       <c r="D8" s="105"/>
     </row>
     <row r="9" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="141" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -6083,54 +6083,54 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A10" s="140"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="106" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C10" s="105"/>
       <c r="D10" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A11" s="141"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="106"/>
       <c r="C11" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A12" s="141"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="106"/>
       <c r="C12" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A13" s="141"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="106"/>
       <c r="C13" s="25" t="s">
         <v>215</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="260.25" customHeight="1">
       <c r="A14" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="132" t="s">
-        <v>407</v>
-      </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
+      <c r="B14" s="133" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6175,21 +6175,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -6238,7 +6238,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6246,7 +6246,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="107"/>
       <c r="B8" s="118" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C8" s="119"/>
       <c r="D8" s="25"/>
@@ -6254,7 +6254,7 @@
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C9" s="119"/>
       <c r="D9" s="25"/>
@@ -6262,7 +6262,7 @@
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="107"/>
       <c r="B10" s="118" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="25"/>
@@ -6270,7 +6270,7 @@
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="107"/>
       <c r="B11" s="118" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="25"/>
@@ -6278,7 +6278,7 @@
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="107"/>
       <c r="B12" s="118" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="25"/>
@@ -6286,7 +6286,7 @@
     <row r="13" spans="1:4" ht="21" customHeight="1">
       <c r="A13" s="107"/>
       <c r="B13" s="118" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C13" s="119"/>
       <c r="D13" s="25"/>
@@ -6294,7 +6294,7 @@
     <row r="14" spans="1:4" ht="21" customHeight="1">
       <c r="A14" s="107"/>
       <c r="B14" s="118" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="25"/>
@@ -6302,7 +6302,7 @@
     <row r="15" spans="1:4" ht="21" customHeight="1">
       <c r="A15" s="107"/>
       <c r="B15" s="118" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" s="119"/>
       <c r="D15" s="25"/>
@@ -6310,7 +6310,7 @@
     <row r="16" spans="1:4" ht="21" customHeight="1">
       <c r="A16" s="107"/>
       <c r="B16" s="118" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C16" s="119"/>
       <c r="D16" s="25"/>
@@ -6318,7 +6318,7 @@
     <row r="17" spans="1:4" ht="21" customHeight="1">
       <c r="A17" s="107"/>
       <c r="B17" s="118" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C17" s="119"/>
       <c r="D17" s="25"/>
@@ -6326,7 +6326,7 @@
     <row r="18" spans="1:4" ht="21" customHeight="1">
       <c r="A18" s="107"/>
       <c r="B18" s="118" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C18" s="119"/>
       <c r="D18" s="25"/>
@@ -6334,7 +6334,7 @@
     <row r="19" spans="1:4" ht="21" customHeight="1">
       <c r="A19" s="107"/>
       <c r="B19" s="118" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="25"/>
@@ -6342,7 +6342,7 @@
     <row r="20" spans="1:4" ht="21" customHeight="1">
       <c r="A20" s="107"/>
       <c r="B20" s="118" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C20" s="119"/>
       <c r="D20" s="25"/>
@@ -6350,7 +6350,7 @@
     <row r="21" spans="1:4" ht="21" customHeight="1">
       <c r="A21" s="107"/>
       <c r="B21" s="118" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C21" s="119"/>
       <c r="D21" s="25"/>
@@ -6358,7 +6358,7 @@
     <row r="22" spans="1:4" ht="21" customHeight="1">
       <c r="A22" s="107"/>
       <c r="B22" s="118" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C22" s="119"/>
       <c r="D22" s="25"/>
@@ -6366,7 +6366,7 @@
     <row r="23" spans="1:4" ht="21" customHeight="1">
       <c r="A23" s="107"/>
       <c r="B23" s="118" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="25"/>
@@ -6374,7 +6374,7 @@
     <row r="24" spans="1:4" ht="21" customHeight="1">
       <c r="A24" s="107"/>
       <c r="B24" s="118" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C24" s="119"/>
       <c r="D24" s="25"/>
@@ -6382,7 +6382,7 @@
     <row r="25" spans="1:4" ht="21" customHeight="1">
       <c r="A25" s="107"/>
       <c r="B25" s="118" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C25" s="119"/>
       <c r="D25" s="25"/>
@@ -6390,7 +6390,7 @@
     <row r="26" spans="1:4" ht="21" customHeight="1">
       <c r="A26" s="107"/>
       <c r="B26" s="118" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C26" s="119"/>
       <c r="D26" s="25"/>
@@ -6398,7 +6398,7 @@
     <row r="27" spans="1:4" ht="21" customHeight="1">
       <c r="A27" s="107"/>
       <c r="B27" s="118" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C27" s="119"/>
       <c r="D27" s="25"/>
@@ -6406,7 +6406,7 @@
     <row r="28" spans="1:4" ht="21" customHeight="1">
       <c r="A28" s="107"/>
       <c r="B28" s="118" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C28" s="119"/>
       <c r="D28" s="25"/>
@@ -6414,7 +6414,7 @@
     <row r="29" spans="1:4" ht="21" customHeight="1">
       <c r="A29" s="107"/>
       <c r="B29" s="118" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C29" s="119"/>
       <c r="D29" s="25"/>
@@ -6422,7 +6422,7 @@
     <row r="30" spans="1:4" ht="21" customHeight="1">
       <c r="A30" s="107"/>
       <c r="B30" s="118" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C30" s="119"/>
       <c r="D30" s="25"/>
@@ -6430,7 +6430,7 @@
     <row r="31" spans="1:4" ht="21" customHeight="1">
       <c r="A31" s="107"/>
       <c r="B31" s="118" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C31" s="119"/>
       <c r="D31" s="25"/>
@@ -6439,19 +6439,19 @@
       <c r="A32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="137" t="s">
-        <v>395</v>
-      </c>
-      <c r="C32" s="138"/>
+      <c r="B32" s="138" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="139"/>
       <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
     </row>
     <row r="34" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A34" s="14" t="s">
@@ -6479,11 +6479,11 @@
       <c r="A36" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="133"/>
-      <c r="D36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6525,15 +6525,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="29.1" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
     </row>
     <row r="2" spans="1:256" ht="20.85" customHeight="1">
       <c r="A2" s="38" t="s">
@@ -6554,7 +6554,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="20.85" customHeight="1">
@@ -6576,7 +6576,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="109" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="20.85" customHeight="1">
@@ -6596,7 +6596,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
       <c r="H4" s="110" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -7384,13 +7384,13 @@
     <row r="7" spans="1:256" ht="20.85" customHeight="1">
       <c r="A7" s="94"/>
       <c r="B7" s="111" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>361</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>363</v>
       </c>
       <c r="E7" s="8">
         <v>5</v>
@@ -7921,7 +7921,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>36</v>
@@ -12411,28 +12411,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>92</v>
@@ -12453,25 +12453,25 @@
       <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
     </row>
     <row r="6" spans="1:4" ht="20.45" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="32"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="134"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="135"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -12508,11 +12508,11 @@
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
       <c r="A11" s="148"/>
       <c r="B11" s="122" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C11" s="121"/>
-      <c r="D11" s="146" t="s">
-        <v>409</v>
+      <c r="D11" s="125" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
@@ -12528,32 +12528,32 @@
     <row r="13" spans="1:4" ht="20.45" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="123" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C13" s="121"/>
       <c r="D13" s="124" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="189.75" customHeight="1">
       <c r="A14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="132" t="s">
-        <v>415</v>
-      </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
+      <c r="B14" s="133" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A9:A13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -12587,28 +12587,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="18"/>
@@ -12627,25 +12627,25 @@
       <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
     </row>
     <row r="6" spans="1:4" ht="20.45" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="53"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="134"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="135"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" ht="20.45" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -12658,7 +12658,7 @@
       <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="141" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -12670,7 +12670,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A10" s="140"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="53" t="s">
         <v>100</v>
       </c>
@@ -12680,7 +12680,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A11" s="141"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="53"/>
       <c r="C11" s="25" t="s">
         <v>102</v>
@@ -12690,7 +12690,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A12" s="141"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="53"/>
       <c r="C12" s="25" t="s">
         <v>103</v>
@@ -12703,11 +12703,11 @@
       <c r="A13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="132" t="s">
-        <v>396</v>
-      </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
+      <c r="B13" s="133" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12735,9 +12735,9 @@
   </sheetPr>
   <dimension ref="A1:IU22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -12751,28 +12751,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="18"/>
@@ -12807,11 +12807,11 @@
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -12879,11 +12879,11 @@
       <c r="A14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="132"/>
     </row>
     <row r="18" ht="187.5" customHeight="1"/>
     <row r="22" ht="44.25" customHeight="1"/>
@@ -12910,9 +12910,9 @@
   </sheetPr>
   <dimension ref="A1:IU22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -12926,28 +12926,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="18"/>
@@ -12982,11 +12982,11 @@
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -13054,11 +13054,11 @@
       <c r="A14" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="132"/>
     </row>
     <row r="18" ht="187.5" customHeight="1"/>
     <row r="22" ht="44.25" customHeight="1"/>
@@ -13101,21 +13101,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -13157,11 +13157,11 @@
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -13389,11 +13389,11 @@
       <c r="A30" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="130" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="132"/>
     </row>
     <row r="34" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="38" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -13436,21 +13436,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -13504,11 +13504,11 @@
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -13596,11 +13596,11 @@
       <c r="A17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>333</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -13643,21 +13643,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -13711,11 +13711,11 @@
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -13803,11 +13803,11 @@
       <c r="A17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>334</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -13850,21 +13850,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -13918,11 +13918,11 @@
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -14010,11 +14010,11 @@
       <c r="A17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>335</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -14057,21 +14057,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -14125,11 +14125,11 @@
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -14217,11 +14217,11 @@
       <c r="A17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>336</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -14264,21 +14264,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -14302,11 +14302,11 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -14470,11 +14470,11 @@
       <c r="A25" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="129" t="s">
-        <v>405</v>
-      </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
+      <c r="B25" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="131"/>
+      <c r="D25" s="132"/>
     </row>
     <row r="29" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="33" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -14517,21 +14517,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -14555,11 +14555,11 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -14655,11 +14655,11 @@
       <c r="A15" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="130" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
     </row>
     <row r="19" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="23" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -14702,21 +14702,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -14759,7 +14759,7 @@
       <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="136" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -14771,7 +14771,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="136"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="98" t="s">
         <v>344</v>
       </c>
@@ -14781,7 +14781,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A9" s="136"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="98" t="s">
         <v>346</v>
       </c>
@@ -14791,7 +14791,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A10" s="136"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="98" t="s">
         <v>348</v>
       </c>
@@ -14801,7 +14801,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A11" s="136"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="98" t="s">
         <v>350</v>
       </c>
@@ -14811,7 +14811,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="139"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="51" t="s">
         <v>352</v>
       </c>
@@ -14824,19 +14824,19 @@
       <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="C13" s="138"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A15" s="14" t="s">
@@ -14864,11 +14864,11 @@
       <c r="A17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14911,28 +14911,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="18"/>
@@ -14959,11 +14959,11 @@
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="14" t="s">
@@ -14991,11 +14991,11 @@
       <c r="A9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15036,21 +15036,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -15093,11 +15093,11 @@
       <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" ht="20.45" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="136" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>170</v>
@@ -15105,9 +15105,9 @@
       <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A8" s="136"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>171</v>
@@ -15118,19 +15118,19 @@
       <c r="A9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="137" t="s">
-        <v>400</v>
-      </c>
-      <c r="C9" s="138"/>
+      <c r="B9" s="138" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="139"/>
       <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="14" t="s">
@@ -15158,11 +15158,11 @@
       <c r="A13" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15205,21 +15205,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -15243,11 +15243,11 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -15363,11 +15363,11 @@
       <c r="A17" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>331</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="25" spans="1:4" s="16" customFormat="1" ht="44.25" customHeight="1"/>
@@ -15410,21 +15410,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -15467,7 +15467,7 @@
       <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="136" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -15479,7 +15479,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="136"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="90" t="s">
         <v>310</v>
       </c>
@@ -15489,7 +15489,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A9" s="136"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="90" t="s">
         <v>269</v>
       </c>
@@ -15502,19 +15502,19 @@
       <c r="A10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="14" t="s">
@@ -15542,11 +15542,11 @@
       <c r="A14" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15589,21 +15589,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -15646,7 +15646,7 @@
       <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="136" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -15658,7 +15658,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="139"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="90" t="s">
         <v>266</v>
       </c>
@@ -15671,19 +15671,19 @@
       <c r="A9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="138" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="14" t="s">
@@ -15711,11 +15711,11 @@
       <c r="A13" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15758,21 +15758,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -15830,19 +15830,19 @@
       <c r="A8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="14" t="s">
@@ -15870,11 +15870,11 @@
       <c r="A12" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15916,21 +15916,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -15974,11 +15974,11 @@
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -16006,11 +16006,11 @@
       <c r="A10" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16051,21 +16051,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.45" customHeight="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="20.45" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="20.45" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -16089,11 +16089,11 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="14" t="s">
@@ -16171,11 +16171,11 @@
       <c r="A13" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
     </row>
     <row r="17" s="16" customFormat="1" ht="187.5" customHeight="1"/>
     <row r="21" s="16" customFormat="1" ht="44.25" customHeight="1"/>
